--- a/data/topics for reading.xlsx
+++ b/data/topics for reading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="glossary" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Term</t>
   </si>
@@ -37,30 +37,15 @@
     <t>Азотфиксирующие бактерии</t>
   </si>
   <si>
-    <t>Акклимация</t>
-  </si>
-  <si>
     <t>Аллелопатия</t>
   </si>
   <si>
-    <t>Аллогенные сукцессии</t>
-  </si>
-  <si>
     <t>Аменсализм</t>
   </si>
   <si>
     <t>Аутотоксичность</t>
   </si>
   <si>
-    <t>Биоиндикация</t>
-  </si>
-  <si>
-    <t>Биотестирование</t>
-  </si>
-  <si>
-    <t>Валовая продукция</t>
-  </si>
-  <si>
     <t>Видовое богатство</t>
   </si>
   <si>
@@ -76,9 +61,6 @@
     <t>Возрастная пирамида</t>
   </si>
   <si>
-    <t>Вторичная сукцессия</t>
-  </si>
-  <si>
     <t>Гемипопуляция</t>
   </si>
   <si>
@@ -91,9 +73,6 @@
     <t>Гомойотермные организмы</t>
   </si>
   <si>
-    <t>Градиент факторов</t>
-  </si>
-  <si>
     <t>Групповое распределение особей</t>
   </si>
   <si>
@@ -106,9 +85,6 @@
     <t>Закон Мальтуса</t>
   </si>
   <si>
-    <t>Закон Шелфорда</t>
-  </si>
-  <si>
     <t>Зоохория</t>
   </si>
   <si>
@@ -136,12 +112,6 @@
     <t>Комменсалистически симбиоз</t>
   </si>
   <si>
-    <t>Конвергенция</t>
-  </si>
-  <si>
-    <t>Консументы</t>
-  </si>
-  <si>
     <t>Коэволюция</t>
   </si>
   <si>
@@ -157,7 +127,7 @@
     <t>Лимитирующие факторы</t>
   </si>
   <si>
-    <t>Логистическая кривая</t>
+    <t>Логистическая кривая динамики численности</t>
   </si>
   <si>
     <t>Мальтузианский параметр</t>
@@ -169,9 +139,6 @@
     <t>Метапопуляция</t>
   </si>
   <si>
-    <t>Микропопуляция</t>
-  </si>
-  <si>
     <t>Мирмекофилия</t>
   </si>
   <si>
@@ -181,9 +148,6 @@
     <t>Мутуалистический симбиоз</t>
   </si>
   <si>
-    <t>Нунатаки</t>
-  </si>
-  <si>
     <t>Осмоконформеры</t>
   </si>
   <si>
@@ -202,15 +166,9 @@
     <t>Пастбищные хищники (grazers)</t>
   </si>
   <si>
-    <t>Первичная сукцессия</t>
-  </si>
-  <si>
     <t>Полифаги</t>
   </si>
   <si>
-    <t>Правило суммы эффективных температур</t>
-  </si>
-  <si>
     <t>Принцип Гаузе</t>
   </si>
   <si>
@@ -229,30 +187,15 @@
     <t>Саркофагия</t>
   </si>
   <si>
-    <t>Сигнальные факторы</t>
-  </si>
-  <si>
     <t>Симбиоз</t>
   </si>
   <si>
-    <t>Симбионт</t>
-  </si>
-  <si>
     <t>Синойкия</t>
   </si>
   <si>
     <t>Стенобионты</t>
   </si>
   <si>
-    <t>Сублетальные хищники</t>
-  </si>
-  <si>
-    <t>Сукцессия</t>
-  </si>
-  <si>
-    <t>Сумма градусо-дней (сумма «эффективных температур»)</t>
-  </si>
-  <si>
     <t>Температурно-зависимое определение пола</t>
   </si>
   <si>
@@ -265,18 +208,12 @@
     <t>Трофическая сеть</t>
   </si>
   <si>
-    <t>Трофическая цепь</t>
-  </si>
-  <si>
     <t>Факторы, зависящие от плотности популяции</t>
   </si>
   <si>
     <t>Факторы, не зависящие от плотности популяции</t>
   </si>
   <si>
-    <t>Фенотипическая пластичность</t>
-  </si>
-  <si>
     <t>Фенотипический полиморфизм</t>
   </si>
   <si>
@@ -286,18 +223,12 @@
     <t>Фундаментальная ниша</t>
   </si>
   <si>
-    <t>Функциональный ответ хищников</t>
-  </si>
-  <si>
     <t>Хищники-генералисты</t>
   </si>
   <si>
     <t>Хищники-специалисты</t>
   </si>
   <si>
-    <t>Хромосомное определение пола</t>
-  </si>
-  <si>
     <t>Численность популяции</t>
   </si>
   <si>
@@ -341,9 +272,6 @@
   </si>
   <si>
     <t>Эффект Олли</t>
-  </si>
-  <si>
-    <t>Эффективная температура</t>
   </si>
 </sst>
 </file>
@@ -351,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -366,7 +294,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,8 +376,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,111 +430,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -518,181 +446,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,35 +637,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -756,6 +655,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -765,17 +679,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,16 +714,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -814,148 +742,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,55 +896,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1285,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1726,131 +1654,6 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
